--- a/Technical Design Documentv1d1.xlsx
+++ b/Technical Design Documentv1d1.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\au_ban\au_ban\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B50A7FE0-1ADD-42DF-B968-40BE439F24E1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Table Schema" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sheet1" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Restaurant Log In" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Restaurant Dashboard" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Table View" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Billing" sheetId="6" r:id="rId8"/>
+    <sheet name="Table Schema" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Restaurant Log In" sheetId="3" r:id="rId3"/>
+    <sheet name="Restaurant Dashboard" sheetId="4" r:id="rId4"/>
+    <sheet name="Table View" sheetId="5" r:id="rId5"/>
+    <sheet name="Billing" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
   <si>
     <t>user levels</t>
   </si>
@@ -460,118 +469,196 @@
   </si>
   <si>
     <t>Settle</t>
+  </si>
+  <si>
+    <t>user type</t>
+  </si>
+  <si>
+    <t>Permission to CRUD for</t>
+  </si>
+  <si>
+    <t>food Category</t>
+  </si>
+  <si>
+    <t>food item</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>edit transaction</t>
+  </si>
+  <si>
+    <t>steward id</t>
+  </si>
+  <si>
+    <t>steward</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>branch_id</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>string(50)</t>
+  </si>
+  <si>
+    <t>phone no</t>
+  </si>
+  <si>
+    <t>number(10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <strike/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <strike/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -597,9 +684,25 @@
         <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
-    <border/>
+  <borders count="45">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -611,6 +714,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -621,6 +725,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -635,6 +740,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -649,6 +755,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -661,6 +768,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -673,6 +781,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -687,6 +796,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -701,6 +811,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -715,6 +826,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -729,6 +841,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -743,6 +856,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -755,6 +869,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -763,9 +878,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -774,9 +891,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -791,17 +910,21 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -809,6 +932,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -821,17 +945,20 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -846,8 +973,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -857,6 +986,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -871,6 +1001,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -885,6 +1016,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -893,145 +1025,375 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <top/>
-    </border>
-    <border>
-      <top/>
-    </border>
-    <border>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="2" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="2" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="5" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="33" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="35" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="38" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="2"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1040,9 +1402,15 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1762125" cy="1323975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1056,23 +1424,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="BABABA"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0">
+          <a:pPr marL="0" lvl="0" indent="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1082,7 +1450,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="2000">
+            <a:rPr lang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1091,21 +1459,9 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>TechBongo</a:t>
+            <a:t>TechBongo Add Space</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t> Add Space</a:t>
-          </a:r>
-          <a:endParaRPr b="1" sz="2000"/>
+          <a:endParaRPr sz="2000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1121,20 +1477,32 @@
     <xdr:ext cx="2619375" cy="323850"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4055363" y="3637125"/>
-          <a:ext cx="2581275" cy="285750"/>
+          <a:off x="4972050" y="3267075"/>
+          <a:ext cx="2619375" cy="323850"/>
           <a:chOff x="4055363" y="3637125"/>
           <a:chExt cx="2581275" cy="285750"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPr id="4" name="Shape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1146,14 +1514,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="38100">
+          <a:ln w="38100" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:miter lim="800000"/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="med" w="med" type="triangle"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -1170,11 +1538,95 @@
     <xdr:ext cx="6753225" cy="7105650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="5" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7400925" cy="6953250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7429500" cy="5753100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1192,73 +1644,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7400925" cy="6953250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7429500" cy="5753100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1269,20 +1655,32 @@
     <xdr:ext cx="1781175" cy="638175"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4460175" y="3465675"/>
-          <a:ext cx="1771650" cy="628650"/>
+          <a:off x="9353550" y="1181100"/>
+          <a:ext cx="1781175" cy="638175"/>
           <a:chOff x="4460175" y="3465675"/>
           <a:chExt cx="1771650" cy="628650"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvPr id="5" name="Shape 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1294,14 +1692,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:miter lim="800000"/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="med" w="med" type="triangle"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -1311,34 +1709,329 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="3" width="14.57"/>
-    <col customWidth="1" min="4" max="4" width="21.14"/>
-    <col customWidth="1" min="5" max="5" width="21.71"/>
-    <col customWidth="1" min="6" max="6" width="20.57"/>
-    <col customWidth="1" min="7" max="7" width="16.57"/>
-    <col customWidth="1" min="8" max="8" width="21.71"/>
-    <col customWidth="1" min="9" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="14.57"/>
-    <col customWidth="1" min="11" max="11" width="21.71"/>
-    <col customWidth="1" min="12" max="12" width="16.57"/>
-    <col customWidth="1" min="13" max="13" width="16.29"/>
-    <col customWidth="1" min="14" max="14" width="21.71"/>
-    <col customWidth="1" min="15" max="26" width="14.57"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="26" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1364,7 +2057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -1390,7 +2083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -1414,7 +2107,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14">
       <c r="A5" s="11"/>
       <c r="B5" s="8"/>
       <c r="D5" s="11" t="s">
@@ -1432,7 +2125,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14">
       <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
@@ -1454,7 +2147,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" s="15"/>
       <c r="B7" s="8"/>
       <c r="G7" s="11" t="s">
@@ -1466,7 +2159,7 @@
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14">
       <c r="A8" s="11" t="s">
         <v>47</v>
       </c>
@@ -1488,7 +2181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
@@ -1510,7 +2203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="G10" s="11" t="s">
@@ -1524,7 +2217,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14">
       <c r="G11" s="9" t="s">
         <v>32</v>
       </c>
@@ -1542,7 +2235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14">
       <c r="G12" s="18" t="s">
         <v>60</v>
       </c>
@@ -1556,7 +2249,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14">
       <c r="J13" s="11" t="s">
         <v>62</v>
       </c>
@@ -1564,7 +2257,7 @@
       <c r="M13" s="15"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14">
       <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
@@ -1592,7 +2285,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14">
       <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
@@ -1616,7 +2309,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -1639,7 +2332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +2347,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11">
       <c r="A18" s="11" t="s">
         <v>75</v>
       </c>
@@ -1675,7 +2368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11">
       <c r="A19" s="27" t="s">
         <v>40</v>
       </c>
@@ -1698,7 +2391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11">
       <c r="A20" s="15" t="s">
         <v>60</v>
       </c>
@@ -1721,7 +2414,7 @@
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
@@ -1742,7 +2435,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>86</v>
       </c>
@@ -1761,7 +2454,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>89</v>
       </c>
@@ -1782,7 +2475,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>91</v>
       </c>
@@ -1801,7 +2494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>92</v>
       </c>
@@ -1828,7 +2521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>95</v>
       </c>
@@ -1851,7 +2544,7 @@
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="D27" s="9" t="s">
         <v>97</v>
       </c>
@@ -1859,7 +2552,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="D28" s="18" t="s">
         <v>60</v>
       </c>
@@ -1867,60 +2560,99 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="G29" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="63"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="19" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="G30" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="G31" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="8"/>
+      <c r="G32" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="8"/>
+      <c r="G33" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>101</v>
       </c>
+      <c r="G34" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>103</v>
       </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>105</v>
       </c>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="30" t="s">
         <v>106</v>
       </c>
@@ -1928,22 +2660,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="30" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="29"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2897,32 +3629,41 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B34">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"CASH,Credit Card,Debit Card,Credit"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2930,12 +3671,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2953,12 +3694,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2979,18 +3720,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -2998,26 +3739,214 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>1234.0</v>
+        <v>1234</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="A13" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="A14" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="A15" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="57"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3987,28 +4916,32 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <conditionalFormatting sqref="D13:L15 D17:L17">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.43"/>
-    <col customWidth="1" min="2" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4016,7 +4949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -4024,44 +4957,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="13:13">
       <c r="M19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="21" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="22" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="23" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="24" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="25" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="26" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="27" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="28" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="29" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="30" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="31" spans="13:13" ht="15.75" customHeight="1"/>
+    <row r="32" spans="13:13" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5031,28 +5964,25 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="26" width="8.71"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6042,30 +6972,27 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.57"/>
-    <col customWidth="1" min="2" max="26" width="8.71"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -6073,7 +7000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
         <v>69</v>
       </c>
@@ -7059,156 +7986,158 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B3:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="23.86"/>
-    <col customWidth="1" min="3" max="3" width="35.86"/>
-    <col customWidth="1" min="4" max="4" width="11.29"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="10.86"/>
-    <col customWidth="1" min="7" max="7" width="13.29"/>
-    <col customWidth="1" min="8" max="8" width="15.0"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:13">
+      <c r="B3" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="45"/>
+      <c r="E3" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="2:13">
+      <c r="B4" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>117</v>
       </c>
       <c r="E4" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>118</v>
       </c>
       <c r="G4" s="29"/>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="J4" s="38">
-        <v>100.0</v>
-      </c>
-      <c r="K4" s="39" t="s">
+      <c r="I4" s="35">
+        <v>1</v>
+      </c>
+      <c r="J4" s="36">
+        <v>100</v>
+      </c>
+      <c r="K4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="38" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="2:13">
+      <c r="B5" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>117</v>
       </c>
       <c r="E5" s="29">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="29"/>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="41">
-        <v>25.0</v>
-      </c>
-      <c r="J5" s="38">
-        <v>250.0</v>
-      </c>
-      <c r="K5" s="39" t="s">
+      <c r="I5" s="39">
+        <v>25</v>
+      </c>
+      <c r="J5" s="36">
+        <v>250</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="2:13">
+      <c r="B6" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E6" s="29">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>125</v>
       </c>
       <c r="G6" s="29"/>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="J6" s="38">
-        <v>1500.0</v>
-      </c>
-      <c r="K6" s="39" t="s">
+      <c r="I6" s="40">
+        <v>4</v>
+      </c>
+      <c r="J6" s="36">
+        <v>1500</v>
+      </c>
+      <c r="K6" s="37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:13">
+      <c r="B7" s="62" t="s">
+        <v>154</v>
+      </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
-      <c r="I7" s="43"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
     </row>
-    <row r="8">
-      <c r="B8" s="35" t="s">
+    <row r="8" spans="2:13">
+      <c r="B8" s="33" t="s">
         <v>126</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -7222,7 +8151,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
     </row>
-    <row r="9">
+    <row r="9" spans="2:13">
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -7231,8 +8160,8 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
     </row>
-    <row r="10">
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="2:13">
+      <c r="B10" s="33" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -7249,8 +8178,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="2:13">
+      <c r="B11" s="33" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="29" t="s">
@@ -7264,8 +8193,8 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
     </row>
-    <row r="12">
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="2:13">
+      <c r="B12" s="33" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="29" t="s">
@@ -7279,8 +8208,8 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
     </row>
-    <row r="13">
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="2:13">
+      <c r="B13" s="33" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -7294,8 +8223,8 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
     </row>
-    <row r="14">
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="2:13">
+      <c r="B14" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -7309,7 +8238,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:13">
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -7318,8 +8247,8 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
     </row>
-    <row r="16">
-      <c r="C16" s="44" t="s">
+    <row r="16" spans="2:13">
+      <c r="C16" s="42" t="s">
         <v>136</v>
       </c>
       <c r="E16" s="29"/>
@@ -7330,7 +8259,7 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:11">
       <c r="E17" s="29" t="s">
         <v>137</v>
       </c>
@@ -7338,15 +8267,15 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="J17" s="29">
-        <v>1850.0</v>
+        <v>1850</v>
       </c>
       <c r="K17" s="29"/>
     </row>
-    <row r="18">
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="2:11">
+      <c r="B18" s="33" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -7356,11 +8285,11 @@
         <v>138</v>
       </c>
       <c r="J18">
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="2:11">
+      <c r="B19" s="33" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="29" t="s">
@@ -7370,49 +8299,49 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:11">
       <c r="E20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="E22" s="45" t="s">
+    <row r="21" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
+      <c r="E22" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="39" t="s">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B26" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -7420,15 +8349,15 @@
       <c r="D27" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -8402,13 +9331,12 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E22:J23"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Student,Corporate,Valued customer"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Technical Design Documentv1d1.xlsx
+++ b/Technical Design Documentv1d1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\au_ban\au_ban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B50A7FE0-1ADD-42DF-B968-40BE439F24E1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58E83359-0B84-4E02-950D-044B9562865D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="170">
   <si>
     <t>user levels</t>
   </si>
@@ -517,13 +517,31 @@
   </si>
   <si>
     <t>number(10)</t>
+  </si>
+  <si>
+    <t>tinyInt(0 excluding,1 including)</t>
+  </si>
+  <si>
+    <t>steward_id</t>
+  </si>
+  <si>
+    <t>unsigned int</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>table_no</t>
+  </si>
+  <si>
+    <t>gst_comp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -652,8 +670,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,8 +720,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1233,13 +1264,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1310,18 +1472,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="33" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -1342,13 +1492,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="45" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1366,16 +1554,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2006,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2031,6 +2209,14 @@
     <col min="15" max="26" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1">
+      <c r="G1" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>17</v>
@@ -2044,11 +2230,11 @@
       <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
+      <c r="G2" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>166</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>21</v>
@@ -2070,10 +2256,10 @@
       <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="78" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -2096,10 +2282,10 @@
       <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="78" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -2116,16 +2302,16 @@
       <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="78"/>
       <c r="J5" s="12" t="s">
         <v>39</v>
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
@@ -2138,39 +2324,39 @@
       <c r="E6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="78"/>
       <c r="J6" s="11" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="15"/>
       <c r="B7" s="8"/>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="78"/>
       <c r="J7" s="16" t="s">
         <v>46</v>
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="J8" s="16" t="s">
+      <c r="H8" s="78"/>
+      <c r="J8" s="72" t="s">
         <v>50</v>
       </c>
       <c r="K8" s="17"/>
@@ -2181,17 +2367,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="78"/>
       <c r="J9" s="11" t="s">
         <v>55</v>
       </c>
@@ -2203,13 +2389,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="78"/>
       <c r="J10" s="11" t="s">
         <v>57</v>
       </c>
@@ -2218,10 +2404,10 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="78" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="11" t="s">
@@ -2236,11 +2422,11 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="G12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>61</v>
+      <c r="G12" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>167</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>45</v>
@@ -2249,7 +2435,13 @@
       <c r="M12" s="11"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+      <c r="G13" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="76" t="s">
+        <v>166</v>
+      </c>
       <c r="J13" s="11" t="s">
         <v>62</v>
       </c>
@@ -2257,7 +2449,7 @@
       <c r="M13" s="15"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
@@ -2270,11 +2462,11 @@
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>18</v>
+      <c r="G14" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="84" t="s">
+        <v>61</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>32</v>
@@ -2285,7 +2477,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
@@ -2298,18 +2490,16 @@
       <c r="E15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="J15" s="18"/>
       <c r="K15" s="14"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="8"/>
+      <c r="M15" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -2321,10 +2511,6 @@
         <v>39</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="G16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="8"/>
       <c r="M16" s="13" t="s">
         <v>72</v>
       </c>
@@ -2332,7 +2518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2342,12 +2528,8 @@
         <v>74</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="G17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1">
       <c r="A18" s="11" t="s">
         <v>75</v>
       </c>
@@ -2357,10 +2539,6 @@
         <v>76</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="G18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="8"/>
       <c r="J18" s="1" t="s">
         <v>78</v>
       </c>
@@ -2368,7 +2546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:14">
       <c r="A19" s="27" t="s">
         <v>40</v>
       </c>
@@ -2380,10 +2558,12 @@
       <c r="E19" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="G19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="11" t="s">
         <v>22</v>
       </c>
@@ -2391,7 +2571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:14">
       <c r="A20" s="15" t="s">
         <v>60</v>
       </c>
@@ -2405,16 +2585,18 @@
       <c r="E20" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="8"/>
+      <c r="G20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J20" s="11" t="s">
         <v>83</v>
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
@@ -2426,8 +2608,8 @@
         <v>84</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="G21" s="11" t="s">
-        <v>50</v>
+      <c r="G21" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="H21" s="8"/>
       <c r="J21" s="11" t="s">
@@ -2435,7 +2617,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>86</v>
       </c>
@@ -2446,7 +2628,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
       <c r="G22" s="11" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="H22" s="8"/>
       <c r="J22" s="11" t="s">
@@ -2454,7 +2636,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>89</v>
       </c>
@@ -2467,7 +2649,7 @@
         <v>61</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H23" s="8"/>
       <c r="J23" s="11" t="s">
@@ -2475,18 +2657,16 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="G24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>71</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H24" s="8"/>
       <c r="J24" s="11" t="s">
         <v>70</v>
       </c>
@@ -2494,7 +2674,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="11" t="s">
         <v>92</v>
       </c>
@@ -2508,12 +2688,10 @@
       <c r="E25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="G25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="8"/>
       <c r="J25" s="9" t="s">
         <v>32</v>
       </c>
@@ -2521,7 +2699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="13" t="s">
         <v>95</v>
       </c>
@@ -2533,126 +2711,150 @@
         <v>96</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="G26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="G26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="8"/>
       <c r="J26" s="13" t="s">
         <v>84</v>
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="D27" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="G27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="D28" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>61</v>
       </c>
+      <c r="G28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="M28" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="N28" s="55"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G29" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="63"/>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="G29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="62" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="19" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="70" t="s">
-        <v>156</v>
+      <c r="G30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="62" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="70" t="s">
+      <c r="G31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" s="62" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="G32" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="70" t="s">
-        <v>159</v>
+      <c r="M32" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="G33" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="70" t="s">
-        <v>161</v>
+      <c r="M33" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="70" t="s">
-        <v>163</v>
-      </c>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="65"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="59"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="30" t="s">
         <v>106</v>
       </c>
@@ -2660,22 +2862,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="30" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -3751,49 +3953,49 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="51" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B13">
@@ -3828,7 +4030,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B14">
@@ -3863,7 +4065,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -3898,10 +4100,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="57"/>
+      <c r="A16" s="49"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="63" t="s">
         <v>158</v>
       </c>
       <c r="B17">
@@ -4917,11 +5119,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="D13:L15 D17:L17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8014,10 +8216,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="65"/>
       <c r="E3" s="31" t="s">
         <v>109</v>
       </c>
@@ -8125,7 +8327,7 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="54" t="s">
         <v>154</v>
       </c>
       <c r="E7" s="29"/>
@@ -8306,22 +8508,22 @@
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="25" spans="2:11" ht="15.75" customHeight="1"/>

--- a/Technical Design Documentv1d1.xlsx
+++ b/Technical Design Documentv1d1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\au_ban\au_ban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58E83359-0B84-4E02-950D-044B9562865D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7E0ECBD-E113-4A01-B13B-E927F90DBA57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="171">
   <si>
     <t>user levels</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>gst_comp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 card 0 cash </t>
   </si>
 </sst>
 </file>
@@ -2186,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2832,6 +2835,9 @@
       </c>
       <c r="B34" s="29" t="s">
         <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
       </c>
       <c r="M34" s="56"/>
       <c r="N34" s="57"/>
